--- a/reports/customerSales.xlsx
+++ b/reports/customerSales.xlsx
@@ -29,13 +29,13 @@
     <t>gwapo alex</t>
   </si>
   <si>
+    <t>Caones Frank</t>
+  </si>
+  <si>
+    <t>Unknown Unknown</t>
+  </si>
+  <si>
     <t>Cherry Jomar</t>
-  </si>
-  <si>
-    <t>Advencula Rogen</t>
-  </si>
-  <si>
-    <t>Unknown Unknown</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <cols>
     <col min="1" max="1" width="6.856" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="20.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="11.569" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -443,7 +443,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2">
-        <v>107.0</v>
+        <v>275.14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -454,7 +454,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2">
-        <v>59.23</v>
+        <v>1095.86</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -465,7 +465,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>0.0</v>
+        <v>176.8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -476,7 +476,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="2">
-        <v>105.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
